--- a/程序文档/对决-排行榜测试.xlsx
+++ b/程序文档/对决-排行榜测试.xlsx
@@ -1,38 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HeroScroll\HeroScrollPj\程序文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55DB1A72-BC36-44D4-883E-4B28359C7117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="1065" windowWidth="21390" windowHeight="11925" xr2:uid="{388347CE-EF96-418F-AACC-6E14973583EF}"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="关卡点玩法" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>挑战者</t>
   </si>
@@ -43,22 +26,19 @@
     <t>挑战位置</t>
   </si>
   <si>
+    <t>挑战进程</t>
+  </si>
+  <si>
     <t>挑战者排名</t>
   </si>
   <si>
     <t>关主排名</t>
   </si>
   <si>
-    <t>挑战进程</t>
-  </si>
-  <si>
-    <t>取消</t>
+    <t>测试1</t>
   </si>
   <si>
     <t>赢</t>
-  </si>
-  <si>
-    <t>测试1</t>
   </si>
   <si>
     <t>测试2</t>
@@ -67,29 +47,185 @@
     <t>测试3</t>
   </si>
   <si>
+    <t>取消</t>
+  </si>
+  <si>
     <t>测试4</t>
+  </si>
+  <si>
+    <t>梅西</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>Leo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,19 +234,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,8 +262,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -129,21 +445,258 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -153,21 +706,2414 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52070</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="椭圆 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2194560" y="4465320"/>
+          <a:ext cx="905510" cy="700405"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>起始</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>584835</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="椭圆 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2413635" y="3327400"/>
+          <a:ext cx="829945" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33655</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="椭圆 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1862455" y="2372360"/>
+          <a:ext cx="829945" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>442595</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="椭圆 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2880995" y="1447800"/>
+          <a:ext cx="791845" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>446405</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="椭圆 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4279900" y="1117600"/>
+          <a:ext cx="1043305" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>208915</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="3" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2647315" y="3868420"/>
+          <a:ext cx="181610" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>448945</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>96520</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="4" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2277745" y="2913380"/>
+          <a:ext cx="257175" cy="493395"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>132715</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="7"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2571115" y="1909445"/>
+          <a:ext cx="426085" cy="542290"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="6"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3672840" y="1388110"/>
+          <a:ext cx="607060" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6736080" y="5433060"/>
+          <a:ext cx="762000" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>刘备</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>454660</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>607060</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2283460" y="5453380"/>
+          <a:ext cx="762000" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>曹操</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>448945</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>258445</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="椭圆 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6544945" y="4427220"/>
+          <a:ext cx="1028700" cy="723265"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>起始</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>340360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>537845</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="椭圆 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7045960" y="3464560"/>
+          <a:ext cx="807085" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>124460</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>398780</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="椭圆 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439660" y="2265680"/>
+          <a:ext cx="883920" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="椭圆 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7688580" y="1188720"/>
+          <a:ext cx="861060" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>293370</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6998970" y="4005580"/>
+          <a:ext cx="450850" cy="513080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>566420</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="0"/>
+          <a:endCxn id="17" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7449820" y="2806700"/>
+          <a:ext cx="431800" cy="657860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>269240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="7"/>
+          <a:endCxn id="18" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8119110" y="1729740"/>
+          <a:ext cx="74930" cy="615315"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71755</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="椭圆 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3729355" y="2959100"/>
+          <a:ext cx="829945" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71755</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="6"/>
+          <a:endCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3243580" y="3229610"/>
+          <a:ext cx="485775" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>153035</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="椭圆 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029835" y="3093720"/>
+          <a:ext cx="829945" cy="541020"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>153035</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="6"/>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4559300" y="3229610"/>
+          <a:ext cx="470535" cy="134620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487045</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165735</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="0"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4144645" y="1579245"/>
+          <a:ext cx="288290" cy="1379855"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -213,7 +3159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -246,26 +3192,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -298,23 +3227,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,152 +3368,224 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FF1345-CD98-476D-AC65-3AA14B55202B}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42592592592593" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.57407407407407" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.13888888888889" style="2"/>
+    <col min="7" max="7" width="11.712962962963" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.57407407407407" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:8">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2" s="2">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="13:14">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="13:14">
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="13:14">
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="13:13">
+      <c r="M10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="13:13">
+      <c r="M11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="13:13">
+      <c r="M12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="13:13">
+      <c r="M13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="13:13">
+      <c r="M14">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E2:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:7">
+      <c r="E2" s="1">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>